--- a/Data/vessels_fishing_province.xlsx
+++ b/Data/vessels_fishing_province.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iwen\SFG\China\China Data Spreadsheets (by data)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AquaFish\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11748" windowHeight="4944"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19992" windowHeight="9720" firstSheet="25" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="31" r:id="rId1"/>
@@ -42,16 +42,8 @@
     <sheet name="1988" sheetId="21" r:id="rId28"/>
     <sheet name="1987" sheetId="22" r:id="rId29"/>
     <sheet name="1986" sheetId="23" r:id="rId30"/>
-    <sheet name="1985" sheetId="24" r:id="rId31"/>
-    <sheet name="1984" sheetId="25" r:id="rId32"/>
-    <sheet name="1983" sheetId="26" r:id="rId33"/>
-    <sheet name="1982" sheetId="27" r:id="rId34"/>
-    <sheet name="1981" sheetId="28" r:id="rId35"/>
-    <sheet name="1980" sheetId="29" r:id="rId36"/>
-    <sheet name="1979" sheetId="30" r:id="rId37"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1309,7 +1301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1624,13 +1616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1647,7 +1637,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1681,7 +1671,7 @@
         <v>46593</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1688,7 @@
         <v>326209</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1715,7 +1705,7 @@
         <v>973209</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1732,7 +1722,7 @@
         <v>46652</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1749,7 +1739,7 @@
         <v>611220</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1766,7 +1756,7 @@
         <v>3229642</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +1773,7 @@
         <v>1791975</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1800,7 +1790,7 @@
         <v>1401600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1807,7 @@
         <v>1887795</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1834,7 +1824,7 @@
         <v>595379</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1864,9 +1854,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1880,7 +1870,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1894,7 +1884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1908,7 +1898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1922,7 +1912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1926,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +1940,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1964,7 +1954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +1968,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +1982,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +1996,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2020,7 +2010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2047,9 +2037,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -2063,7 +2053,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2091,7 +2081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2105,7 +2095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2119,7 +2109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +2137,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2161,7 +2151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2175,7 +2165,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2189,7 +2179,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2203,7 +2193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2230,9 +2220,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -2246,7 +2236,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2260,7 +2250,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2274,7 +2264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2288,7 +2278,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2302,7 +2292,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2316,7 +2306,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +2320,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2344,7 +2334,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2358,7 +2348,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2372,7 +2362,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +2376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2413,9 +2403,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -2429,7 +2419,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2443,7 +2433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2457,7 +2447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2471,7 +2461,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2475,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2499,7 +2489,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2513,7 +2503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2527,7 +2517,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2531,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2545,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2566,7 +2556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2570,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2607,9 +2597,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -2623,7 +2613,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2637,7 +2627,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2651,7 +2641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2665,7 +2655,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2679,7 +2669,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2693,7 +2683,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +2697,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2721,7 +2711,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +2725,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +2739,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2763,7 +2753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2790,9 +2780,9 @@
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -2806,7 +2796,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2820,7 +2810,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2834,7 +2824,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2848,7 +2838,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2862,7 +2852,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +2866,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +2880,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2904,7 +2894,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2918,7 +2908,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2932,7 +2922,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2946,7 +2936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2973,9 +2963,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -2989,7 +2979,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3003,7 +2993,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3017,7 +3007,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3031,7 +3021,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3045,7 +3035,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3059,7 +3049,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3063,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3087,7 +3077,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3101,7 +3091,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3115,7 +3105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3129,7 +3119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3156,9 +3146,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -3172,7 +3162,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3186,7 +3176,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3200,7 +3190,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3214,7 +3204,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3228,7 +3218,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3232,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3256,7 +3246,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3270,7 +3260,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3284,7 +3274,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3298,7 +3288,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3312,7 +3302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3339,9 +3329,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -3355,7 +3345,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3369,7 +3359,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3383,7 +3373,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3397,7 +3387,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3411,7 +3401,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3425,7 +3415,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3439,7 +3429,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3453,7 +3443,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3467,7 +3457,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3481,7 +3471,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3495,7 +3485,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3522,9 +3512,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -3538,7 +3528,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3552,7 +3542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3566,7 +3556,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3580,7 +3570,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3594,7 +3584,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3608,7 +3598,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3622,7 +3612,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3636,7 +3626,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +3640,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3664,7 +3654,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3668,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3692,7 +3682,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3719,9 +3709,9 @@
       <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -3738,7 +3728,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3739,7 @@
         <v>9670</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3766,7 +3756,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3778,7 +3768,7 @@
         <v>329134</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3795,7 +3785,7 @@
         <v>872729</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3812,7 +3802,7 @@
         <v>48189</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3829,7 +3819,7 @@
         <v>575836</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3846,7 +3836,7 @@
         <v>3264824</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3863,7 +3853,7 @@
         <v>1710163</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3880,7 +3870,7 @@
         <v>1353115</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3897,7 +3887,7 @@
         <v>1937273</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3914,7 +3904,7 @@
         <v>618022</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3938,9 +3928,9 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -3954,7 +3944,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3968,7 +3958,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3982,7 +3972,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3996,7 +3986,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4010,7 +4000,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4024,7 +4014,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4038,7 +4028,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4052,7 +4042,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4066,7 +4056,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4080,7 +4070,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4094,7 +4084,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4121,9 +4111,9 @@
       <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -4137,7 +4127,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4151,7 +4141,7 @@
         <v>8894</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4165,7 +4155,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4179,7 +4169,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4193,7 +4183,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4207,7 +4197,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4221,7 +4211,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4235,7 +4225,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4249,7 +4239,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4263,7 +4253,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4277,7 +4267,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4304,9 +4294,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -4320,7 +4310,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4334,7 +4324,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4348,7 +4338,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4362,7 +4352,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4376,7 +4366,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4390,7 +4380,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4404,7 +4394,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4418,7 +4408,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4432,7 +4422,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4446,7 +4436,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4460,7 +4450,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4487,9 +4477,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -4503,7 +4493,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4517,7 +4507,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4531,7 +4521,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4545,7 +4535,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4559,7 +4549,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4573,7 +4563,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4587,7 +4577,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4601,7 +4591,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4615,7 +4605,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4629,7 +4619,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4643,7 +4633,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4670,9 +4660,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -4686,7 +4676,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4700,7 +4690,7 @@
         <v>25880</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4714,7 +4704,7 @@
         <v>41231</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4728,7 +4718,7 @@
         <v>8305</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4742,7 +4732,7 @@
         <v>18286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4756,7 +4746,7 @@
         <v>10979</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4770,7 +4760,7 @@
         <v>23858</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4797,9 +4787,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -4813,7 +4803,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4827,7 +4817,7 @@
         <v>24116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4841,7 +4831,7 @@
         <v>32413</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4855,7 +4845,7 @@
         <v>12621</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4869,7 +4859,7 @@
         <v>13877</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4896,9 +4886,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -4912,7 +4902,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4926,7 +4916,7 @@
         <v>29200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4940,7 +4930,7 @@
         <v>27800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4954,7 +4944,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4968,7 +4958,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4982,7 +4972,7 @@
         <v>15165</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4996,7 +4986,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5023,9 +5013,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -5039,7 +5029,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5053,7 +5043,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5067,7 +5057,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5081,7 +5071,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5095,7 +5085,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5109,7 +5099,7 @@
         <v>12365</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5123,7 +5113,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5150,12 +5140,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -5169,7 +5159,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5183,7 +5173,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5197,7 +5187,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5211,7 +5201,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5225,7 +5215,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5239,7 +5229,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5266,9 +5256,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -5282,7 +5272,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5296,7 +5286,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5310,7 +5300,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5324,7 +5314,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5338,7 +5328,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5365,9 +5355,9 @@
       <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -5384,7 +5374,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5395,7 +5385,7 @@
         <v>5627</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5412,7 +5402,7 @@
         <v>41691</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5424,7 +5414,7 @@
         <v>316550</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5441,7 +5431,7 @@
         <v>935201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5458,7 +5448,7 @@
         <v>42751</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5475,7 +5465,7 @@
         <v>581788</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5492,7 +5482,7 @@
         <v>3266230</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5509,7 +5499,7 @@
         <v>1756497</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5526,7 +5516,7 @@
         <v>1362740</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5543,7 +5533,7 @@
         <v>1950443</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5560,7 +5550,7 @@
         <v>623378</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5580,13 +5570,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -5600,7 +5590,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5614,7 +5604,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5628,7 +5618,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5642,7 +5632,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5657,90 +5647,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5753,9 +5659,9 @@
       <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -5772,7 +5678,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5786,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5803,7 +5709,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5815,7 +5721,7 @@
         <v>289592</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5832,7 +5738,7 @@
         <v>1016789</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5849,7 +5755,7 @@
         <v>50595</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5866,7 +5772,7 @@
         <v>600487</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5883,7 +5789,7 @@
         <v>3374251</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5900,7 +5806,7 @@
         <v>1701721</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5917,7 +5823,7 @@
         <v>1361247</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5934,7 +5840,7 @@
         <v>1950487</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5951,7 +5857,7 @@
         <v>612668</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5975,9 +5881,9 @@
       <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -5994,7 +5900,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6005,7 +5911,7 @@
         <v>5627</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6022,7 +5928,7 @@
         <v>36036</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6034,7 +5940,7 @@
         <v>302116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6051,7 +5957,7 @@
         <v>1181569</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6068,7 +5974,7 @@
         <v>142518</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6085,7 +5991,7 @@
         <v>611084</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6102,7 +6008,7 @@
         <v>3515828</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6119,7 +6025,7 @@
         <v>1832147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6136,7 +6042,7 @@
         <v>1547184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6153,7 +6059,7 @@
         <v>1998291</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6170,7 +6076,7 @@
         <v>685954</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6181,71 +6087,71 @@
         <v>1146614</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6263,9 +6169,9 @@
       <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -6282,7 +6188,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6293,7 +6199,7 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6310,7 +6216,7 @@
         <v>36003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6322,7 +6228,7 @@
         <v>309085</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6339,7 +6245,7 @@
         <v>1059650</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6356,7 +6262,7 @@
         <v>51557</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6373,7 +6279,7 @@
         <v>539160</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6390,7 +6296,7 @@
         <v>3304542</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6407,7 +6313,7 @@
         <v>1718062</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6424,7 +6330,7 @@
         <v>1401922</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6441,7 +6347,7 @@
         <v>1938446</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6458,7 +6364,7 @@
         <v>716803</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6482,9 +6388,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -6501,7 +6407,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6512,7 +6418,7 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6529,7 +6435,7 @@
         <v>36203</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6541,7 +6447,7 @@
         <v>311723</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6558,7 +6464,7 @@
         <v>1058379</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6575,7 +6481,7 @@
         <v>59122</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6592,7 +6498,7 @@
         <v>550547</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6609,7 +6515,7 @@
         <v>3456167</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6626,7 +6532,7 @@
         <v>1762663</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6643,7 +6549,7 @@
         <v>1303854</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6660,7 +6566,7 @@
         <v>1971223</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6677,7 +6583,7 @@
         <v>690679</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6701,9 +6607,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -6720,7 +6626,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6737,7 +6643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6754,7 +6660,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6771,7 +6677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6788,7 +6694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6805,7 +6711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6822,7 +6728,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6839,7 +6745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6856,7 +6762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6873,7 +6779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6890,7 +6796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6907,7 +6813,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6937,12 +6843,12 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -6959,7 +6865,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6970,7 +6876,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6987,7 +6893,7 @@
         <v>30348</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7004,7 +6910,7 @@
         <v>272950</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7021,7 +6927,7 @@
         <v>955399</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7038,7 +6944,7 @@
         <v>58248</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7055,7 +6961,7 @@
         <v>575394</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7072,7 +6978,7 @@
         <v>3480110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7089,7 +6995,7 @@
         <v>1699514</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7106,7 +7012,7 @@
         <v>1215281</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7123,7 +7029,7 @@
         <v>2041143</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7137,7 +7043,7 @@
         <v>694034</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
